--- a/単体試験_Pact_エビデンス.xlsx
+++ b/単体試験_Pact_エビデンス.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23017"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23012"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ICF_AutoCapsule_Disabled\案件\ANA\プロト開発\単体テスト\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rizen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_9F3F7D5ACB068C1A0518ECFC3B34D15B31B3D258" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF09347-6EDD-4C44-86A2-2463648DFC4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="945" yWindow="225" windowWidth="36675" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PACTテストイメージ" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="テスト実施" sheetId="4" r:id="rId3"/>
     <sheet name="pact.json" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
     <t>PACT テストイメージ</t>
     <phoneticPr fontId="4"/>
@@ -124,39 +124,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Pactファイルで読み込んだリクエストメッセージを送信</t>
-    <rPh sb="9" eb="10">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>レスポンスを送信</t>
-    <rPh sb="6" eb="8">
-      <t>ソウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>PACTファイルのレスポンスと上で送信したレスポンスを比較</t>
-    <rPh sb="15" eb="16">
-      <t>ウエ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウシン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ヒカク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Providerテスト終了</t>
     <rPh sb="11" eb="13">
       <t>シュウリョウ</t>
@@ -567,13 +534,90 @@
   </si>
   <si>
     <t>}</t>
+  </si>
+  <si>
+    <t>GradleコマンドでConsumerテスト呼び出し</t>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mockサーバ起動</t>
+    <rPh sb="7" eb="9">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Mockサーバ停止</t>
+    <rPh sb="7" eb="9">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>GradleコマンドでProviderテスト呼び出し</t>
+    <rPh sb="22" eb="23">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PACTファイルから読み込んだリクエストメッセージをProvider送信</t>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ソウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Providerからレスポンスを受信</t>
+    <rPh sb="16" eb="18">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>PACTファイルのレスポンスとProviderから受信したレスポンスを比較</t>
+    <rPh sb="25" eb="27">
+      <t>ジュシン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヒカク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Consumerとスタブが正常に通信できるか確認</t>
+    <rPh sb="13" eb="15">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,13 +716,79 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="四角形: 角を丸くする 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F365428-97F3-4CFE-A6E7-FCD66B5ED6A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="1676400"/>
+          <a:ext cx="13020675" cy="4991100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -749,13 +859,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -826,15 +936,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -851,9 +961,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4124324" y="1190625"/>
-          <a:ext cx="0" cy="7143750"/>
+        <a:xfrm flipH="1">
+          <a:off x="7543800" y="1190625"/>
+          <a:ext cx="9524" cy="11906250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -878,15 +988,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -902,8 +1012,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1371600" y="5000625"/>
-          <a:ext cx="8915400" cy="0"/>
+          <a:off x="5486400" y="8334375"/>
+          <a:ext cx="10287000" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -936,13 +1046,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1018,15 +1128,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>685799</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1044,8 +1154,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6857999" y="1190625"/>
-          <a:ext cx="1" cy="7143750"/>
+          <a:off x="10286999" y="1190625"/>
+          <a:ext cx="1" cy="11906250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1070,15 +1180,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1096,8 +1206,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10277475" y="1190625"/>
-          <a:ext cx="9525" cy="7143750"/>
+          <a:off x="13706475" y="1190625"/>
+          <a:ext cx="9525" cy="11906250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1112,64 +1222,6 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="53" name="直線矢印コネクタ 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71AA7E8C-3BE1-4F3E-816C-90B4E738632B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="3095625"/>
-          <a:ext cx="2743200" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1258,7 +1310,7 @@
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1277,7 +1329,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1371600" y="1190625"/>
-          <a:ext cx="0" cy="7143750"/>
+          <a:ext cx="0" cy="11906250"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1302,32 +1354,90 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="59" name="直線矢印コネクタ 58">
+        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B3EC36A-FC05-497F-811A-9F08A6477BF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E1885C-50E9-4187-BEC3-9C768BDA649E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3429000" y="2619376"/>
-          <a:ext cx="2743200" cy="0"/>
+        <a:xfrm>
+          <a:off x="1371600" y="5238750"/>
+          <a:ext cx="3429000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACB260A-9967-44E4-A093-EEB8A8523FEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="7620000"/>
+          <a:ext cx="4114800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1360,614 +1470,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B3A3ED-0A7F-47BC-B0CA-E9F9B2CC62F5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="1895476"/>
-          <a:ext cx="685800" cy="247650"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 914400"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 914400 h 914400"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1005840"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 1005840"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 1005840"/>
-            <a:gd name="connsiteX3" fmla="*/ 91440 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 1005840 h 1005840"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY4" fmla="*/ 952500 h 952500"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="685800" h="952500">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="685800" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="685800" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="685800" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="952500"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="正方形/長方形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848BF7A0-3A30-407E-904C-4BC4B766AD7A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3429000" y="3571875"/>
-          <a:ext cx="685800" cy="247650"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 914400"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 914400 h 914400"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1005840"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 1005840"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 1005840"/>
-            <a:gd name="connsiteX3" fmla="*/ 91440 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 1005840 h 1005840"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY4" fmla="*/ 952500 h 952500"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="685800" h="952500">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="685800" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="685800" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="685800" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="952500"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="73" name="直線矢印コネクタ 72">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E1885C-50E9-4187-BEC3-9C768BDA649E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="4286250"/>
-          <a:ext cx="2057400" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直線矢印コネクタ 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1ACB260A-9967-44E4-A093-EEB8A8523FEC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1371600" y="5476875"/>
-          <a:ext cx="8915400" cy="1"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:headEnd type="triangle"/>
-          <a:tailEnd type="none"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="89" name="正方形/長方形 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C4DDCAD-D1F9-4C95-A4B9-1F19A33BA2C1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10287000" y="5476875"/>
-          <a:ext cx="685800" cy="247650"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 914400"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 914400 h 914400"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1005840"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 1005840"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 1005840"/>
-            <a:gd name="connsiteX3" fmla="*/ 91440 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 1005840 h 1005840"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY4" fmla="*/ 952500 h 952500"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="685800" h="952500">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="685800" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="685800" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="685800" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="952500"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2019,13 +1530,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2041,8 +1552,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="7858125"/>
-          <a:ext cx="8915400" cy="0"/>
+          <a:off x="1371600" y="11191875"/>
+          <a:ext cx="4114800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2077,13 +1588,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2099,8 +1610,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1371600" y="6191250"/>
-          <a:ext cx="8915400" cy="0"/>
+          <a:off x="1371600" y="7858125"/>
+          <a:ext cx="4114800" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2135,13 +1646,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -2157,8 +1668,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="1371600" y="5000625"/>
-          <a:ext cx="8915400" cy="0"/>
+          <a:off x="1371600" y="5715000"/>
+          <a:ext cx="12344400" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2191,23 +1702,725 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 70">
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D5B2C96-222C-416E-9F51-BD31ED65490A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF76C2F-F10B-48B5-88BA-71BDBCA61EC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="714375"/>
+          <a:ext cx="1371600" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>Junit</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>685799</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5203596-44FE-4602-B841-FAAB7EC3534F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800599" y="1190625"/>
+          <a:ext cx="0" cy="11906250"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DD035BD-F936-4625-AEE3-9FD997CBA7BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800600" y="1905000"/>
+          <a:ext cx="5486400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直線矢印コネクタ 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C989BF-CB80-47FC-8332-9C5EB17515D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="5476875"/>
+          <a:ext cx="7543800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線矢印コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10A797C-2B99-4D07-B4C8-70B22C7523A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800600" y="2381250"/>
+          <a:ext cx="5486400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{35632FFC-949F-4562-A45B-37EE1AA254DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7543800" y="3095625"/>
+          <a:ext cx="2743200" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B881FEB5-F1FC-46B7-9521-034388442BB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4800600" y="2857500"/>
+          <a:ext cx="2743200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="直線矢印コネクタ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CE7C897-00C0-4EB4-8D2E-9F5FFF99AAEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7543800" y="4286251"/>
+          <a:ext cx="2743200" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直線矢印コネクタ 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B1C74CF-C339-47B5-A681-2F5219C314F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="4762500"/>
+          <a:ext cx="4800600" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="45" name="直線矢印コネクタ 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE3C7BC-C966-4C5F-97E0-EA378D6B6CE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="4524375"/>
+          <a:ext cx="5486400" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB8182C-0588-4C97-9A3F-C2701EA9ED8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1371600" y="7143750"/>
+          <a:ext cx="3429000" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="直線矢印コネクタ 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B70A6CDD-1646-4EE7-9358-2E976B16BA8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="9048750"/>
+          <a:ext cx="10972800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="none"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE14CB6D-C6F2-4663-B703-5568E3DF9FF2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,8 +2428,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10287000" y="6667500"/>
-          <a:ext cx="685800" cy="247650"/>
+          <a:off x="5486400" y="9525001"/>
+          <a:ext cx="685800" cy="238124"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2239,22 +2452,38 @@
             <a:gd name="connsiteY2" fmla="*/ 914400 h 1005840"/>
             <a:gd name="connsiteX3" fmla="*/ 91440 w 914400"/>
             <a:gd name="connsiteY3" fmla="*/ 1005840 h 1005840"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
+            <a:gd name="connsiteX0" fmla="*/ 314325 w 1228725"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 923925"/>
+            <a:gd name="connsiteX1" fmla="*/ 1228725 w 1228725"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 923925"/>
+            <a:gd name="connsiteX2" fmla="*/ 1228725 w 1228725"/>
+            <a:gd name="connsiteY2" fmla="*/ 914400 h 923925"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1228725"/>
+            <a:gd name="connsiteY3" fmla="*/ 923925 h 923925"/>
+            <a:gd name="connsiteX0" fmla="*/ 1 w 1228725"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 952499"/>
+            <a:gd name="connsiteX1" fmla="*/ 1228725 w 1228725"/>
+            <a:gd name="connsiteY1" fmla="*/ 28574 h 952499"/>
+            <a:gd name="connsiteX2" fmla="*/ 1228725 w 1228725"/>
+            <a:gd name="connsiteY2" fmla="*/ 942974 h 952499"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1228725"/>
+            <a:gd name="connsiteY3" fmla="*/ 952499 h 952499"/>
+            <a:gd name="connsiteX0" fmla="*/ 1 w 1228725"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 952499"/>
+            <a:gd name="connsiteX1" fmla="*/ 685801 w 1228725"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 952499"/>
+            <a:gd name="connsiteX2" fmla="*/ 1228725 w 1228725"/>
+            <a:gd name="connsiteY2" fmla="*/ 942974 h 952499"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 1228725"/>
+            <a:gd name="connsiteY3" fmla="*/ 952499 h 952499"/>
+            <a:gd name="connsiteX0" fmla="*/ 1 w 685801"/>
             <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
+            <a:gd name="connsiteX1" fmla="*/ 685801 w 685801"/>
             <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 914400"/>
+            <a:gd name="connsiteX2" fmla="*/ 685801 w 685801"/>
             <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 685801"/>
+            <a:gd name="connsiteY3" fmla="*/ 952499 h 952500"/>
             <a:gd name="connsiteX0" fmla="*/ 0 w 685800"/>
             <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
             <a:gd name="connsiteX1" fmla="*/ 685800 w 685800"/>
@@ -2262,17 +2491,15 @@
             <a:gd name="connsiteX2" fmla="*/ 685800 w 685800"/>
             <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
             <a:gd name="connsiteX3" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
+            <a:gd name="connsiteY3" fmla="*/ 238124 h 952500"/>
             <a:gd name="connsiteX0" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 238124"/>
             <a:gd name="connsiteX1" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY4" fmla="*/ 952500 h 952500"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 238124"/>
+            <a:gd name="connsiteX2" fmla="*/ 685799 w 685800"/>
+            <a:gd name="connsiteY2" fmla="*/ 238124 h 238124"/>
+            <a:gd name="connsiteX3" fmla="*/ 0 w 685800"/>
+            <a:gd name="connsiteY3" fmla="*/ 238124 h 238124"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -2288,27 +2515,23 @@
             <a:cxn ang="0">
               <a:pos x="connsiteX3" y="connsiteY3"/>
             </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="685800" h="952500">
+            <a:path w="685800" h="238124">
               <a:moveTo>
                 <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:lnTo>
                 <a:pt x="685800" y="0"/>
               </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="685800" y="79375"/>
+                <a:pt x="685799" y="158749"/>
+                <a:pt x="685799" y="238124"/>
+              </a:cubicBezTo>
               <a:lnTo>
-                <a:pt x="685800" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="685800" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="952500"/>
+                <a:pt x="0" y="238124"/>
               </a:lnTo>
             </a:path>
           </a:pathLst>
@@ -2321,7 +2544,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2352,23 +2574,96 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 70">
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92343872-EB47-4962-BBC0-EFD9E14A3FCC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FA0CC3-AC7C-4909-8848-505029B36BE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447800" y="1704975"/>
+          <a:ext cx="1133475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Consumer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="00B050"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="四角形: 角を丸くする 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CDA5473-9B14-40A1-9F21-94409A721C61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2376,113 +2671,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10287000" y="7381875"/>
-          <a:ext cx="685800" cy="247650"/>
+          <a:off x="685800" y="7620000"/>
+          <a:ext cx="15087600" cy="5000625"/>
         </a:xfrm>
-        <a:custGeom>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
-          <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 914400"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 914400 h 914400"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY4" fmla="*/ 0 h 914400"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 1005840"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 1005840"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 1005840"/>
-            <a:gd name="connsiteX3" fmla="*/ 91440 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 1005840 h 1005840"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 914400 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 914400 w 914400"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 914400"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 914400"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY0" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX1" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY1" fmla="*/ 0 h 952500"/>
-            <a:gd name="connsiteX2" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY2" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX3" fmla="*/ 685800 w 685800"/>
-            <a:gd name="connsiteY3" fmla="*/ 952500 h 952500"/>
-            <a:gd name="connsiteX4" fmla="*/ 0 w 685800"/>
-            <a:gd name="connsiteY4" fmla="*/ 952500 h 952500"/>
-          </a:gdLst>
-          <a:ahLst/>
-          <a:cxnLst>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX0" y="connsiteY0"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX1" y="connsiteY1"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX2" y="connsiteY2"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX3" y="connsiteY3"/>
-            </a:cxn>
-            <a:cxn ang="0">
-              <a:pos x="connsiteX4" y="connsiteY4"/>
-            </a:cxn>
-          </a:cxnLst>
-          <a:rect l="l" t="t" r="r" b="b"/>
-          <a:pathLst>
-            <a:path w="685800" h="952500">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="685800" y="0"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="685800" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="685800" y="952500"/>
-              </a:lnTo>
-              <a:lnTo>
-                <a:pt x="0" y="952500"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
+        </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="28575">
           <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
+            <a:srgbClr val="0070C0"/>
           </a:solidFill>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="arrow" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2506,6 +2706,79 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="テキスト ボックス 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD1ED84A-F576-4184-A63C-479765C8EA4C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1438275" y="7648575"/>
+          <a:ext cx="1133475" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800">
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Provider</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+            <a:solidFill>
+              <a:srgbClr val="0070C0"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3483,158 +3756,227 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:Q36"/>
+  <dimension ref="A2:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="4" customFormat="1">
+    <row r="2" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="4" customFormat="1">
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
     </row>
-    <row r="4" spans="1:7" s="4" customFormat="1">
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:7" s="4" customFormat="1">
+    <row r="5" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1">
+    <row r="6" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1">
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C11" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I12" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I16" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1">
-      <c r="G8" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="4" customFormat="1"/>
-    <row r="10" spans="1:7" s="4" customFormat="1"/>
-    <row r="11" spans="1:7" s="4" customFormat="1">
-      <c r="G11" s="4" t="s">
+    <row r="17" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I18" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P19" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1"/>
-    <row r="13" spans="1:7" s="4" customFormat="1">
-      <c r="G13" s="4" t="s">
+    <row r="20" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="P21" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1"/>
-    <row r="15" spans="1:7" s="4" customFormat="1">
-      <c r="G15" s="4" t="s">
+    <row r="22" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="23" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I24" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1"/>
-    <row r="17" spans="3:17" s="4" customFormat="1">
-      <c r="C17" s="4" t="s">
+    <row r="25" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="26" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I26" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="3:17" s="4" customFormat="1">
-      <c r="C18" s="4" t="s">
+    <row r="27" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="I28" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C29" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="3:17" s="4" customFormat="1"/>
-    <row r="20" spans="3:17" s="4" customFormat="1"/>
-    <row r="21" spans="3:17" s="4" customFormat="1">
-      <c r="C21" s="4" t="s">
+    <row r="30" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="3:16" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="33" spans="3:24" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="34" spans="3:24" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="35" spans="3:24" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="36" spans="3:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C36" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="3:17" s="4" customFormat="1"/>
-    <row r="23" spans="3:17" s="4" customFormat="1">
-      <c r="C23" s="4" t="s">
+    <row r="37" spans="3:24" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="38" spans="3:24" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="39" spans="3:24" s="4" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="40" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="C40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="U40" s="4"/>
+    </row>
+    <row r="41" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+    </row>
+    <row r="42" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="U42" s="4"/>
+    </row>
+    <row r="43" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="I43" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" s="4" customFormat="1"/>
-    <row r="25" spans="3:17" s="4" customFormat="1">
-      <c r="K25" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="3:17" s="4" customFormat="1"/>
-    <row r="27" spans="3:17" s="4" customFormat="1"/>
-    <row r="28" spans="3:17">
-      <c r="L28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="P28" s="4" t="s">
+      <c r="P43" s="4"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
+      <c r="U43" s="4"/>
+    </row>
+    <row r="44" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="I44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="U44" s="4"/>
+    </row>
+    <row r="45" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="I45" t="s">
+        <v>99</v>
+      </c>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+    </row>
+    <row r="46" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="X46" s="4"/>
+    </row>
+    <row r="47" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="I47" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="X47" s="4"/>
+    </row>
+    <row r="48" spans="3:24" x14ac:dyDescent="0.4">
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="X48" s="4"/>
+    </row>
+    <row r="49" spans="4:24" x14ac:dyDescent="0.4">
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="X49" s="4"/>
+    </row>
+    <row r="52" spans="4:24" x14ac:dyDescent="0.4">
+      <c r="I52" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="3:17">
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="3:17">
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="3:17">
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="P31" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="3:17">
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="Q32" s="4"/>
-    </row>
-    <row r="33" spans="3:17">
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="Q33" s="4"/>
-    </row>
-    <row r="34" spans="3:17">
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="P34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q34" s="4"/>
-    </row>
-    <row r="35" spans="3:17">
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-    </row>
-    <row r="36" spans="3:17">
-      <c r="C36" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
+      <c r="T52" s="4"/>
+    </row>
+    <row r="55" spans="4:24" x14ac:dyDescent="0.4">
+      <c r="W55" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3649,268 +3991,268 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="4.75" customWidth="1"/>
     <col min="3" max="3" width="121.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="C5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="C8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="C10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="C16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
       <c r="C19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
       <c r="C22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
       <c r="C27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
       <c r="C28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
       <c r="C29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
       <c r="C33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
       <c r="C34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="1"/>
       <c r="C35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="1"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="1"/>
       <c r="C37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="C38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="C39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C42" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C44" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="C42" s="5" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="C43" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C46" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="C44" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="C45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="C46" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3927,72 +4269,72 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="4.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="B6" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C35" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="C7" t="s">
+    <row r="36" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C36" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
+    <row r="38" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="2:3">
-      <c r="C35" t="s">
+      <c r="C38" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
-      <c r="C36" t="s">
+    <row r="39" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
-      <c r="B38" t="s">
+    <row r="40" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
         <v>66</v>
-      </c>
-      <c r="C38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="2:3">
-      <c r="C39" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="40" spans="2:3">
-      <c r="C40" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4009,157 +4351,157 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="64.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="2" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="2" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="2" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="2" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="2" t="s">
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="2" t="s">
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="2" t="s">
+    <row r="16" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B16" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="2" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B17" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="2:2">
-      <c r="B15" s="2" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B18" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="2" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B19" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="2" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B20" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="2" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B21" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="2" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B22" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="2" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B23" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="2" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B24" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="2" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B25" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="2" t="s">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B26" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="2" t="s">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B27" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="2" t="s">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B28" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" s="2" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B29" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B30" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B31" s="2" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -4170,12 +4512,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4337,19 +4676,45 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD42A575-4F50-4E6F-90BE-69A3848DB667}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD3B0A71-19F4-4301-BB04-804B75647B72}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0690B08F-3A7A-4733-84F0-82E601712A10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0690B08F-3A7A-4733-84F0-82E601712A10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="65679dba-84b1-4d3e-a5b7-a1734c550734"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD3B0A71-19F4-4301-BB04-804B75647B72}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD42A575-4F50-4E6F-90BE-69A3848DB667}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>